--- a/biology/Botanique/Pedalium_murex/Pedalium_murex.xlsx
+++ b/biology/Botanique/Pedalium_murex/Pedalium_murex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pedalium murex est une espèce végétale de la famille des Pedaliaceae. 
 </t>
@@ -511,15 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante rampante, vivace, très ramifiée. Elle se répand davantage sur le sol qu'elle ne monte en hauteur (maximum 60 cm de haut)[2]. 
-Feuillage
-Les feuilles sont succulentes, glanduleuses ; elles sont simples et à disposition opposée sur la tige. Leur forme est ovale à obovale et elles mesurent de 1 à 4.5 cm de long pour 0,5 à 3 cm de large[2]. Leur pétiole mesure de 1 à 4 cm de long[2]. Leur marge est crénelée ou serretée, de façon irrégulière. Le limbe présente une face supérieure glabre, mais est finement écailleuse sur la face inférieure.  
-Fleur
-Les fleurs crème à jaune pâle, au cœur jaune, sont portées par des pédicelles de 1 à 2 mm de long (qui croîtront jusqu'à 4 mm quand ils porteront le fruit). Elles mesurent de 1,5 à 2 cm de diamètre[2]. Les sépales persistants mesurent 2 mm de long[2]. Les 5 pétales sont fusionnés en un large tube qui mesurent de 1 à 3 cm de long[2], à l'ouverture évasée et aux lobes visibles. Les étamines, incluses dans le tube formé par les pétales, mesurent de 0,5 à 1 cm de long[2]. Leur filet est dilaté, porte des poils glanduleux à leur base, et des anthères en forme de rein à leur sommet.
-Fruit
-Les fruits indéhiscents, de 1 à 1,8 cm de long pour 0,5 à 1 cm de large[2], portent des protubérances en forme d'épine mesurant de 2 à 4 mm de long[2]. Ils contiennent une graine dans chacune de leurs deux loges. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante rampante, vivace, très ramifiée. Elle se répand davantage sur le sol qu'elle ne monte en hauteur (maximum 60 cm de haut). 
 </t>
         </is>
       </c>
@@ -545,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution géographique</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On peut la trouver dans l'Ouest du Pakistan (Sind), dans certaines régions de l'Inde (Kâthiâwar, Delhi, Bombay par exemple), au Sri Lanka, mais aussi en Afrique tropicale.
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont succulentes, glanduleuses ; elles sont simples et à disposition opposée sur la tige. Leur forme est ovale à obovale et elles mesurent de 1 à 4.5 cm de long pour 0,5 à 3 cm de large. Leur pétiole mesure de 1 à 4 cm de long. Leur marge est crénelée ou serretée, de façon irrégulière. Le limbe présente une face supérieure glabre, mais est finement écailleuse sur la face inférieure.  
 </t>
         </is>
       </c>
@@ -576,12 +590,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs crème à jaune pâle, au cœur jaune, sont portées par des pédicelles de 1 à 2 mm de long (qui croîtront jusqu'à 4 mm quand ils porteront le fruit). Elles mesurent de 1,5 à 2 cm de diamètre. Les sépales persistants mesurent 2 mm de long. Les 5 pétales sont fusionnés en un large tube qui mesurent de 1 à 3 cm de long, à l'ouverture évasée et aux lobes visibles. Les étamines, incluses dans le tube formé par les pétales, mesurent de 0,5 à 1 cm de long. Leur filet est dilaté, porte des poils glanduleux à leur base, et des anthères en forme de rein à leur sommet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits indéhiscents, de 1 à 1,8 cm de long pour 0,5 à 1 cm de large, portent des protubérances en forme d'épine mesurant de 2 à 4 mm de long. Ils contiennent une graine dans chacune de leurs deux loges. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut la trouver dans l'Ouest du Pakistan (Sind), dans certaines régions de l'Inde (Kâthiâwar, Delhi, Bombay par exemple), au Sri Lanka, mais aussi en Afrique tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pedalium_murex</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles et les rameaux de cette plante, macérés dans l'eau froide, produisent un mucilage épais. Les feuilles peuvent être cuites et consommées comme un légume[2]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles et les rameaux de cette plante, macérés dans l'eau froide, produisent un mucilage épais. Les feuilles peuvent être cuites et consommées comme un légume. 
 </t>
         </is>
       </c>
